--- a/workspace/tests/files/valid_excel_configuration.xlsx
+++ b/workspace/tests/files/valid_excel_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\avenugopal\irp-notebook-framework\workspace\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4801BC4-D539-493F-A931-4A42BB995D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C01C26-F8B3-49C6-8375-EF740BC93F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{48674540-2CFC-41EB-AA35-DFC8C4619EF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" firstSheet="3" activeTab="6" xr2:uid="{48674540-2CFC-41EB-AA35-DFC8C4619EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="9" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <definedName name="Treaty">'Reinsurance Treaties'!$A$2:$A$498</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -702,9 +703,6 @@
     <t>USST_Lender_P_High_Frq</t>
   </si>
   <si>
-    <t>HD USWF v2</t>
-  </si>
-  <si>
     <t>USFL_Other_Other_NT</t>
   </si>
   <si>
@@ -1738,6 +1736,9 @@
   </si>
   <si>
     <t>202503_USST_Choice_First_Select_Group</t>
+  </si>
+  <si>
+    <t>HD USWF</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EF8432-541F-42F9-841B-A3691F77D20B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -2381,7 +2382,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -2394,24 +2395,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2419,32 +2420,32 @@
         <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2452,21 +2453,21 @@
         <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2474,21 +2475,21 @@
         <v>160</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2499,18 +2500,18 @@
         <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2518,43 +2519,43 @@
         <v>169</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2562,32 +2563,32 @@
         <v>176</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2595,32 +2596,32 @@
         <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2628,23 +2629,23 @@
         <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2652,23 +2653,23 @@
         <v>179</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2676,60 +2677,60 @@
         <v>197</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>168</v>
@@ -2737,111 +2738,111 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>198</v>
@@ -2849,54 +2850,54 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="C54" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="C55" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="C56" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="C57" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2911,77 +2912,77 @@
     </row>
     <row r="60" spans="1:3">
       <c r="C60" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="3:3">
@@ -2991,7 +2992,7 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -6341,8 +6342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6A1FCE-672E-47EA-B9D8-82E4004387CD}">
   <dimension ref="A1:P499"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -7933,7 +7934,7 @@
         <v>89</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>161</v>
@@ -7955,7 +7956,7 @@
         <v>91</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>161</v>
@@ -7977,7 +7978,7 @@
         <v>92</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>161</v>
@@ -8005,7 +8006,7 @@
         <v>93</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>161</v>
@@ -8033,7 +8034,7 @@
         <v>94</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>161</v>
@@ -8061,7 +8062,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>161</v>
@@ -8089,7 +8090,7 @@
         <v>96</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>161</v>
@@ -8117,7 +8118,7 @@
         <v>97</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>161</v>
@@ -8142,7 +8143,7 @@
         <v>98</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>161</v>
@@ -8170,7 +8171,7 @@
         <v>99</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>161</v>
@@ -8195,10 +8196,10 @@
         <v>53</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>161</v>
@@ -8226,10 +8227,10 @@
         <v>54</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>161</v>
@@ -8257,10 +8258,10 @@
         <v>55</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>161</v>
@@ -8288,10 +8289,10 @@
         <v>57</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>161</v>
@@ -8319,10 +8320,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>161</v>
@@ -8350,10 +8351,10 @@
         <v>59</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>161</v>
@@ -8381,7 +8382,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>179</v>
@@ -8409,7 +8410,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>179</v>
@@ -8440,7 +8441,7 @@
         <v>63</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>182</v>
@@ -8465,7 +8466,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>182</v>
@@ -8490,7 +8491,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>182</v>
@@ -8521,7 +8522,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>182</v>
@@ -8552,7 +8553,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>182</v>
@@ -8583,7 +8584,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>182</v>
@@ -8614,7 +8615,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>179</v>
@@ -8639,7 +8640,7 @@
         <v>71</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>179</v>
@@ -8664,7 +8665,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>179</v>
@@ -8695,7 +8696,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>179</v>
@@ -8726,7 +8727,7 @@
         <v>74</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>179</v>
@@ -8757,7 +8758,7 @@
         <v>75</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>179</v>
@@ -8788,7 +8789,7 @@
         <v>76</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>179</v>
@@ -8819,7 +8820,7 @@
         <v>77</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>179</v>
@@ -8850,10 +8851,10 @@
         <v>78</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>161</v>
@@ -8875,10 +8876,10 @@
         <v>80</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>161</v>
@@ -8900,10 +8901,10 @@
         <v>81</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>161</v>
@@ -8931,10 +8932,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>161</v>
@@ -8962,10 +8963,10 @@
         <v>83</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>161</v>
@@ -8993,10 +8994,10 @@
         <v>84</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>161</v>
@@ -9024,10 +9025,10 @@
         <v>85</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>161</v>
@@ -9055,10 +9056,10 @@
         <v>86</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>161</v>
@@ -9083,10 +9084,10 @@
         <v>87</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>161</v>
@@ -9114,10 +9115,10 @@
         <v>88</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>161</v>
@@ -11619,157 +11620,157 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -11781,7 +11782,7 @@
         <v>205</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -11898,10 +11899,10 @@
         <v>202503_USHU_NT_Manufactured_Housing_Group</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -12018,10 +12019,10 @@
         <v>202503_USHU_NT_Renters_Group</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -12138,10 +12139,10 @@
         <v>202503_USHU_NT_Other_Group</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -12258,10 +12259,10 @@
         <v>202503_USHU_NT_LendarPlaced_Group</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -12318,40 +12319,40 @@
         <v>202503_NT_USHU_Group</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="D11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="H11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -12710,28 +12711,28 @@
         <v>207</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -12792,7 +12793,7 @@
         <v>207</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>30</v>
@@ -12864,7 +12865,7 @@
         <v>207</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>99</v>
@@ -12935,7 +12936,7 @@
         <v>207</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -13003,7 +13004,7 @@
         <v>207</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>99</v>
@@ -13067,7 +13068,7 @@
         <v>205</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>97</v>
@@ -13133,7 +13134,7 @@
         <v>205</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -13200,7 +13201,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>94</v>
@@ -13268,7 +13269,7 @@
         <v>202</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -13331,7 +13332,7 @@
         <v>206</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>98</v>
@@ -13397,7 +13398,7 @@
         <v>206</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13470,7 +13471,7 @@
         <v>203</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>95</v>
@@ -13542,7 +13543,7 @@
         <v>203</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -13606,7 +13607,7 @@
         <v>201</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>93</v>
@@ -13674,7 +13675,7 @@
         <v>201</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -13746,7 +13747,7 @@
         <v>204</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>96</v>
@@ -13818,7 +13819,7 @@
         <v>204</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -13885,7 +13886,7 @@
         <v>200</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>92</v>
@@ -13955,7 +13956,7 @@
         <v>200</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -14014,19 +14015,19 @@
         <v>49</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>30</v>
@@ -14086,19 +14087,19 @@
         <v>49</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>99</v>
@@ -14157,19 +14158,19 @@
         <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>207</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -14225,19 +14226,19 @@
         <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>207</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>99</v>
@@ -14298,10 +14299,10 @@
         <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>97</v>
@@ -14364,10 +14365,10 @@
         <v>205</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -14431,10 +14432,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -14497,10 +14498,10 @@
         <v>202</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>
@@ -14562,10 +14563,10 @@
         <v>206</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>98</v>
@@ -14628,10 +14629,10 @@
         <v>206</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -14692,19 +14693,19 @@
         <v>47</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>203</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>95</v>
@@ -14764,19 +14765,19 @@
         <v>47</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>203</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -14837,10 +14838,10 @@
         <v>201</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>93</v>
@@ -14905,10 +14906,10 @@
         <v>201</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -14968,19 +14969,19 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>204</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>96</v>
@@ -15040,19 +15041,19 @@
         <v>48</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>204</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -15107,19 +15108,19 @@
         <v>44</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>92</v>
@@ -15177,19 +15178,19 @@
         <v>44</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -15306,16 +15307,16 @@
         <v>202503_USHU_NT_Clay_Group</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D54" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -15430,10 +15431,10 @@
         <v>202503_USHU_NT_Clay21stMort_Group</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -15550,10 +15551,10 @@
         <v>202503_USHU_NT_ClayHomes_Group</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -15628,22 +15629,22 @@
         <v>199</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="J59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="L59" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>89</v>
@@ -15712,22 +15713,22 @@
         <v>199</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="J60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K60" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="L60" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -15783,13 +15784,13 @@
         <v>199</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>91</v>
@@ -15853,13 +15854,13 @@
         <v>199</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -15921,13 +15922,13 @@
         <v>196</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>89</v>
@@ -15991,13 +15992,13 @@
         <v>196</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -16080,10 +16081,10 @@
         <v>199</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N65" s="5" t="s">
         <v>89</v>
@@ -16164,10 +16165,10 @@
         <v>199</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -16229,7 +16230,7 @@
         <v>199</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>91</v>
@@ -16299,7 +16300,7 @@
         <v>199</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -16367,7 +16368,7 @@
         <v>196</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>89</v>
@@ -16437,7 +16438,7 @@
         <v>196</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -16556,10 +16557,10 @@
         <v>199</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -16794,10 +16795,10 @@
         <v>202503_USFL_NT_FloodSolutions_Group</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -16918,16 +16919,16 @@
         <v>202503_USFL_NT_Other_Group</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -17050,22 +17051,22 @@
         <v>202503_USFL_NT_TotalFlood_Group</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="G80" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -17121,7 +17122,7 @@
         <v>202</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -17181,7 +17182,7 @@
         <v>201</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -17241,7 +17242,7 @@
         <v>204</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -17301,7 +17302,7 @@
         <v>206</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17361,7 +17362,7 @@
         <v>207</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -17421,7 +17422,7 @@
         <v>200</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -17481,7 +17482,7 @@
         <v>196</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -17541,7 +17542,7 @@
         <v>199</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -17601,7 +17602,7 @@
         <v>203</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -18263,7 +18264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E597AFA4-7618-4E71-A806-6E46AD957760}">
   <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
@@ -18282,10 +18283,10 @@
         <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18293,10 +18294,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18304,10 +18305,10 @@
         <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18315,10 +18316,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18326,10 +18327,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -18340,7 +18341,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18351,7 +18352,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18362,7 +18363,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -18373,7 +18374,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18384,7 +18385,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18395,7 +18396,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -18406,7 +18407,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -18417,7 +18418,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -18428,7 +18429,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -18439,7 +18440,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -18450,7 +18451,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -18461,7 +18462,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -18472,7 +18473,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -18483,7 +18484,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18494,7 +18495,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -18505,7 +18506,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -18516,7 +18517,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -18527,7 +18528,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -18535,10 +18536,10 @@
         <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -18546,10 +18547,10 @@
         <v>172</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -18557,10 +18558,10 @@
         <v>173</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -18568,10 +18569,10 @@
         <v>174</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -18579,10 +18580,10 @@
         <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -18590,10 +18591,10 @@
         <v>175</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -18601,10 +18602,10 @@
         <v>175</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -18612,10 +18613,10 @@
         <v>175</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -18623,10 +18624,10 @@
         <v>175</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -18634,10 +18635,10 @@
         <v>177</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -18645,10 +18646,10 @@
         <v>177</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -18656,10 +18657,10 @@
         <v>177</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -18667,10 +18668,10 @@
         <v>177</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -18678,10 +18679,10 @@
         <v>177</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -18689,10 +18690,10 @@
         <v>178</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -18700,10 +18701,10 @@
         <v>180</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -18756,10 +18757,10 @@
         <v>191</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -18767,10 +18768,10 @@
         <v>192</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -18846,7 +18847,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -18857,7 +18858,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -18868,7 +18869,7 @@
         <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -18879,7 +18880,7 @@
         <v>90</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -18890,7 +18891,7 @@
         <v>90</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -18901,7 +18902,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -18912,7 +18913,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -18923,7 +18924,7 @@
         <v>90</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -18934,7 +18935,7 @@
         <v>90</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -18945,1987 +18946,1987 @@
         <v>90</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -20934,18 +20935,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21111,18 +21112,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E70AEE-B883-49FE-AFA2-6291C77D13EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E478B8D0-77EB-45A2-A2CF-E656BB0B5C54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E478B8D0-77EB-45A2-A2CF-E656BB0B5C54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E70AEE-B883-49FE-AFA2-6291C77D13EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
